--- a/output/analysis/w_avg-micro.xlsx
+++ b/output/analysis/w_avg-micro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tdf" sheetId="1" state="visible" r:id="rId2"/>
@@ -460,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="1" sqref="G44:K48 A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q55" activeCellId="1" sqref="O47:Q47 Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -718,16 +718,13 @@
         <v>9</v>
       </c>
       <c r="O6" s="1" t="n">
-        <f aca="false">AVERAGE(B6,H6)</f>
-        <v>0.68</v>
+        <v>0.68060564237541</v>
       </c>
       <c r="P6" s="1" t="n">
-        <f aca="false">AVERAGE(C6,I6)</f>
-        <v>0.68</v>
+        <v>0.679189659458116</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <f aca="false">AVERAGE(D6,J6)</f>
-        <v>0.68</v>
+        <v>0.679896913670642</v>
       </c>
       <c r="R6" s="1" t="n">
         <f aca="false">SUM(R3:R5)</f>
@@ -1018,16 +1015,13 @@
         <v>9</v>
       </c>
       <c r="O14" s="1" t="n">
-        <f aca="false">AVERAGE(B14,H14)</f>
-        <v>0.735</v>
+        <v>0.734975657173815</v>
       </c>
       <c r="P14" s="1" t="n">
-        <f aca="false">AVERAGE(C14,I14)</f>
-        <v>0.735</v>
+        <v>0.73609592445328</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <f aca="false">AVERAGE(D14,J14)</f>
-        <v>0.735</v>
+        <v>0.735535364254163</v>
       </c>
       <c r="R14" s="1" t="n">
         <f aca="false">SUM(R11:R13)</f>
@@ -1323,16 +1317,13 @@
         <v>9</v>
       </c>
       <c r="O23" s="1" t="n">
-        <f aca="false">AVERAGE(B23,H23)</f>
-        <v>0.81</v>
+        <v>0.809201875237996</v>
       </c>
       <c r="P23" s="1" t="n">
-        <f aca="false">AVERAGE(C23,I23)</f>
-        <v>0.81</v>
+        <v>0.809765100671141</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <f aca="false">AVERAGE(D23,J23)</f>
-        <v>0.81</v>
+        <v>0.809483389983796</v>
       </c>
       <c r="R23" s="1" t="n">
         <f aca="false">SUM(R20:R22)</f>
@@ -1623,16 +1614,13 @@
         <v>9</v>
       </c>
       <c r="O31" s="1" t="n">
-        <f aca="false">AVERAGE(B31,H31)</f>
-        <v>0.82</v>
+        <v>0.820778413976236</v>
       </c>
       <c r="P31" s="1" t="n">
-        <f aca="false">AVERAGE(C31,I31)</f>
-        <v>0.82</v>
+        <v>0.821534542743539</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <f aca="false">AVERAGE(D31,J31)</f>
-        <v>0.82</v>
+        <v>0.821156304297231</v>
       </c>
       <c r="R31" s="1" t="n">
         <f aca="false">SUM(R28:R30)</f>
@@ -1928,16 +1916,13 @@
         <v>9</v>
       </c>
       <c r="O39" s="1" t="n">
-        <f aca="false">AVERAGE(B39,H39)</f>
-        <v>0.8</v>
+        <v>0.801795960478118</v>
       </c>
       <c r="P39" s="1" t="n">
-        <f aca="false">AVERAGE(C39,I39)</f>
-        <v>0.8</v>
+        <v>0.803547104151131</v>
       </c>
       <c r="Q39" s="1" t="n">
-        <f aca="false">AVERAGE(D39,J39)</f>
-        <v>0.8</v>
+        <v>0.802670577221526</v>
       </c>
       <c r="R39" s="1" t="n">
         <f aca="false">SUM(R36:R38)</f>
@@ -2228,16 +2213,13 @@
         <v>9</v>
       </c>
       <c r="O47" s="1" t="n">
-        <f aca="false">AVERAGE(B47,H47)</f>
-        <v>0.81</v>
+        <v>0.814718268340468</v>
       </c>
       <c r="P47" s="1" t="n">
-        <f aca="false">AVERAGE(C47,I47)</f>
-        <v>0.81</v>
+        <v>0.813822067594433</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <f aca="false">AVERAGE(D47,J47)</f>
-        <v>0.81</v>
+        <v>0.814269921373688</v>
       </c>
       <c r="R47" s="1" t="n">
         <f aca="false">SUM(R44:R46)</f>
@@ -2309,8 +2291,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G43" activeCellId="1" sqref="G44:K48 G43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O47" activeCellId="0" sqref="O47:Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2567,16 +2549,13 @@
         <v>9</v>
       </c>
       <c r="O6" s="1" t="n">
-        <f aca="false">AVERAGE(B6,H6)</f>
-        <v>0.675</v>
+        <v>0.67609652737305</v>
       </c>
       <c r="P6" s="1" t="n">
-        <f aca="false">AVERAGE(C6,I6)</f>
-        <v>0.675</v>
+        <v>0.676790952025851</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <f aca="false">AVERAGE(D6,J6)</f>
-        <v>0.675</v>
+        <v>0.676443561478569</v>
       </c>
       <c r="R6" s="1" t="n">
         <f aca="false">SUM(R3:R5)</f>
@@ -2867,16 +2846,13 @@
         <v>9</v>
       </c>
       <c r="O14" s="1" t="n">
-        <f aca="false">AVERAGE(B14,H14)</f>
-        <v>0.74</v>
+        <v>0.742602203812382</v>
       </c>
       <c r="P14" s="1" t="n">
-        <f aca="false">AVERAGE(C14,I14)</f>
-        <v>0.74</v>
+        <v>0.741953280318091</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <f aca="false">AVERAGE(D14,J14)</f>
-        <v>0.74</v>
+        <v>0.742277600237698</v>
       </c>
       <c r="R14" s="1" t="n">
         <f aca="false">SUM(R11:R13)</f>
@@ -3172,16 +3148,13 @@
         <v>9</v>
       </c>
       <c r="O23" s="1" t="n">
-        <f aca="false">AVERAGE(B23,H23)</f>
-        <v>0.815</v>
+        <v>0.81108072476113</v>
       </c>
       <c r="P23" s="1" t="n">
-        <f aca="false">AVERAGE(C23,I23)</f>
-        <v>0.815</v>
+        <v>0.812311707680835</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <f aca="false">AVERAGE(D23,J23)</f>
-        <v>0.815</v>
+        <v>0.811695749507292</v>
       </c>
       <c r="R23" s="1" t="n">
         <f aca="false">SUM(R20:R22)</f>
@@ -3472,16 +3445,13 @@
         <v>9</v>
       </c>
       <c r="O31" s="1" t="n">
-        <f aca="false">AVERAGE(B31,H31)</f>
-        <v>0.825</v>
+        <v>0.825718288371432</v>
       </c>
       <c r="P31" s="1" t="n">
-        <f aca="false">AVERAGE(C31,I31)</f>
-        <v>0.825</v>
+        <v>0.828183399602386</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <f aca="false">AVERAGE(D31,J31)</f>
-        <v>0.825</v>
+        <v>0.826949006884551</v>
       </c>
       <c r="R31" s="1" t="n">
         <f aca="false">SUM(R28:R30)</f>
@@ -3777,16 +3747,13 @@
         <v>9</v>
       </c>
       <c r="O39" s="1" t="n">
-        <f aca="false">AVERAGE(B39,H39)</f>
-        <v>0.805</v>
+        <v>0.80727694788141</v>
       </c>
       <c r="P39" s="1" t="n">
-        <f aca="false">AVERAGE(C39,I39)</f>
-        <v>0.805</v>
+        <v>0.805318170519513</v>
       </c>
       <c r="Q39" s="1" t="n">
-        <f aca="false">AVERAGE(D39,J39)</f>
-        <v>0.805</v>
+        <v>0.806296369562495</v>
       </c>
       <c r="R39" s="1" t="n">
         <f aca="false">SUM(R36:R38)</f>
@@ -4077,16 +4044,13 @@
         <v>9</v>
       </c>
       <c r="O47" s="1" t="n">
-        <f aca="false">AVERAGE(B47,H47)</f>
-        <v>0.815</v>
+        <v>0.812945616412127</v>
       </c>
       <c r="P47" s="1" t="n">
-        <f aca="false">AVERAGE(C47,I47)</f>
-        <v>0.815</v>
+        <v>0.813148608349901</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <f aca="false">AVERAGE(D47,J47)</f>
-        <v>0.815</v>
+        <v>0.81304709971086</v>
       </c>
       <c r="R47" s="1" t="n">
         <f aca="false">SUM(R44:R46)</f>
@@ -4159,7 +4123,7 @@
   <dimension ref="A1:AMJ48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G43" activeCellId="1" sqref="G44:K48 G43"/>
+      <selection pane="topLeft" activeCell="G43" activeCellId="1" sqref="O47:Q47 G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6007,8 +5971,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G44:K48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G44" activeCellId="1" sqref="O47:Q47 G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
